--- a/5sem/55/tables/na.xlsx
+++ b/5sem/55/tables/na.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:H2049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>-59.579709000000001</v>
       </c>
       <c r="E2">
-        <f>B2/612</f>
+        <f>B2/602</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
